--- a/MedsDiary.xlsx
+++ b/MedsDiary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Code\Health-Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C3D919-C6DA-4050-BF79-56A8FACFA2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF48B00-3CF4-48AC-A5C0-FBEB3A6330E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{1D0922CF-DB7F-43ED-9343-DA7CBE63EAAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1D0922CF-DB7F-43ED-9343-DA7CBE63EAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Meds" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Diarrhea, stomach cramps, fatigue, nausea, disturbed sleep</t>
   </si>
   <si>
-    <t>Did not start the meds yet, because I had gluten symptoms.</t>
-  </si>
-  <si>
     <t>1 Not present</t>
   </si>
   <si>
@@ -381,12 +378,6 @@
     <t>I noticed I still got somewhat distracted while researching, but I managed to get back on track sooner. In addition: going to the supermarket did not exhaust me, and usually I would feel mentally tired from the sound, movement and activity.</t>
   </si>
   <si>
-    <t>Forgot. I will create alarms in my phone.</t>
-  </si>
-  <si>
-    <t>Forgot.</t>
-  </si>
-  <si>
     <t>Didn't notice a rebound, perhaps because I was doing activities that did not require as heavy focus.</t>
   </si>
   <si>
@@ -400,6 +391,93 @@
   </si>
   <si>
     <t>When I get distracted, it's less stressful because I know I will get back onto task. Therefore I feel less anxious.</t>
+  </si>
+  <si>
+    <t>Tried to take a nap, but could not sleep</t>
+  </si>
+  <si>
+    <t>On this evening my sleep was restless. My Garmin showed I had active heartrate and breathing during sleep, and I woke very tired.</t>
+  </si>
+  <si>
+    <t>Loss of appetite, constant feeling of "full" stomach</t>
+  </si>
+  <si>
+    <t>During work I'm having trouble keeping track of when to take the meds.</t>
+  </si>
+  <si>
+    <t>Due to 2 nights poor sleep, I feel very tired. This means I can't notice a rebound because I was just tired all day.</t>
+  </si>
+  <si>
+    <t>I was able to write a blog post. I have not done that for about 10 years, even though I tried many times.</t>
+  </si>
+  <si>
+    <t>Was able to do household chores on Saturday morning without feeling overwhelmed.</t>
+  </si>
+  <si>
+    <t>Going from nothing to 5mg is a big difference, but I can't feel the difference between 5mg and 10mg.</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Felt tired from a busy day, but it was still possible to visit friends in the evening. Before that happened only sometimes.</t>
+  </si>
+  <si>
+    <t>There were many face-to-face work meetings and it felt like I was more "present" in them. Not 100%, but more than before.</t>
+  </si>
+  <si>
+    <t>I was more confident to speak in meetings, because I was more aware of what was being discussed.</t>
+  </si>
+  <si>
+    <t>Covid: no meds so I can take naps during the day.</t>
+  </si>
+  <si>
+    <t>Feel sick: verkoudheid</t>
+  </si>
+  <si>
+    <t>I am a little more aware of when I feel low on energy. It still requires a conscious decision to take a rest, but I do notice fatigue before it becomes exhaustion.</t>
+  </si>
+  <si>
+    <t>I am at home, sick. I used to "listen to radio/video in the background" while reading other things -- I needed extra stimulus just to focus on articles. Now I can focus on a news article without requiring background noise</t>
+  </si>
+  <si>
+    <t>I lost weight due to Covid</t>
+  </si>
+  <si>
+    <t>Started to feel sick</t>
+  </si>
+  <si>
+    <t>I was able to check old emails and do financial administration (pension) that has been waiting years.</t>
+  </si>
+  <si>
+    <t>Still feeling sick, forgot afternoon pill</t>
+  </si>
+  <si>
+    <t>I noticed myself hyperfocus at 16:30 and I was able to pull myself out of it at 17:10.</t>
+  </si>
+  <si>
+    <t>Gluten :(</t>
+  </si>
+  <si>
+    <t>Having difficulty remembering to take my meds. I will create alarms in my phone.</t>
+  </si>
+  <si>
+    <t>COVID. On this evening my sleep was restless. My Garmin showed I had active heartrate and breathing during sleep, and I woke very tired.</t>
+  </si>
+  <si>
+    <t>COVID</t>
   </si>
 </sst>
 </file>
@@ -558,9 +636,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,7 +676,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -704,7 +782,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,7 +924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -857,28 +935,28 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="18"/>
-    <col min="3" max="3" width="6.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.54296875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="42.1796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="31.453125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="35.36328125" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="11.54296875" style="13"/>
+    <col min="1" max="1" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="18"/>
+    <col min="3" max="3" width="6.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="42.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="35" style="13" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="35.44140625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
@@ -916,7 +994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>-2</v>
       </c>
@@ -930,13 +1008,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>52</v>
@@ -944,7 +1022,7 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>-1</v>
       </c>
@@ -958,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>51</v>
@@ -972,7 +1050,7 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -992,13 +1070,13 @@
         <v>5</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>50</v>
@@ -1008,7 +1086,7 @@
       </c>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -1028,13 +1106,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>50</v>
@@ -1044,7 +1122,7 @@
       </c>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -1064,13 +1142,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>50</v>
@@ -1080,7 +1158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>2</v>
       </c>
@@ -1101,16 +1179,18 @@
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>2</v>
       </c>
@@ -1131,12 +1211,16 @@
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="K8" s="16"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>2</v>
       </c>
@@ -1156,13 +1240,19 @@
         <v>5</v>
       </c>
       <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="K9" s="16"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>3</v>
       </c>
@@ -1178,17 +1268,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="16"/>
-      <c r="H10" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="H10" s="17"/>
       <c r="I10" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1210,13 +1298,13 @@
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -1233,20 +1321,20 @@
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>4</v>
       </c>
@@ -1266,17 +1354,17 @@
         <v>5</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>4</v>
       </c>
@@ -1296,19 +1384,19 @@
         <v>5</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>4</v>
       </c>
@@ -1328,23 +1416,21 @@
         <v>5</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H15" s="17"/>
       <c r="I15" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>50</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>5</v>
       </c>
@@ -1370,7 +1456,7 @@
       <c r="K16" s="16"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>5</v>
       </c>
@@ -1396,7 +1482,7 @@
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>5</v>
       </c>
@@ -1415,14 +1501,24 @@
       <c r="F18" s="16">
         <v>5</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>6</v>
       </c>
@@ -1441,14 +1537,18 @@
       <c r="F19" s="16">
         <v>5</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="G19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>6</v>
       </c>
@@ -1467,14 +1567,24 @@
       <c r="F20" s="16">
         <v>5</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L20" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>6</v>
       </c>
@@ -1484,14 +1594,10 @@
       <c r="C21" s="15">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
@@ -1500,7 +1606,7 @@
       <c r="K21" s="16"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>7</v>
       </c>
@@ -1508,7 +1614,7 @@
         <v>45428</v>
       </c>
       <c r="C22" s="15">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>3</v>
@@ -1526,7 +1632,7 @@
       <c r="K22" s="16"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>7</v>
       </c>
@@ -1534,7 +1640,7 @@
         <v>45428</v>
       </c>
       <c r="C23" s="15">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>3</v>
@@ -1552,7 +1658,7 @@
       <c r="K23" s="16"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>7</v>
       </c>
@@ -1560,7 +1666,7 @@
         <v>45428</v>
       </c>
       <c r="C24" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>3</v>
@@ -1573,17 +1679,23 @@
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="I24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L24" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
         <v>45429</v>
       </c>
       <c r="C25" s="15">
-        <v>0.33333333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>3</v>
@@ -1596,17 +1708,21 @@
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+      <c r="I25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="K25" s="16"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>45429</v>
       </c>
       <c r="C26" s="15">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>3</v>
@@ -1618,18 +1734,24 @@
         <v>10</v>
       </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="H26" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>45429</v>
       </c>
       <c r="C27" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>3</v>
@@ -1640,19 +1762,30 @@
       <c r="F27" s="16">
         <v>5</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="K27" s="16"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="B28" s="14">
         <v>45430</v>
       </c>
       <c r="C28" s="15">
-        <v>0.33333333333333331</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>3</v>
@@ -1663,19 +1796,27 @@
       <c r="F28" s="16">
         <v>10</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="K28" s="16"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>45430</v>
       </c>
       <c r="C29" s="15">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>3</v>
@@ -1688,17 +1829,21 @@
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="K29" s="16"/>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>45430</v>
       </c>
       <c r="C30" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>3</v>
@@ -1711,12 +1856,21 @@
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L30" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="B31" s="14">
         <v>45431</v>
       </c>
@@ -1734,35 +1888,37 @@
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
+      <c r="I31" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L31" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
         <v>45431</v>
       </c>
       <c r="C32" s="15">
         <v>0.5</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="16"/>
+      <c r="I32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>45431</v>
       </c>
@@ -1780,219 +1936,221 @@
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
+      <c r="I33" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="B34" s="14">
         <v>45432</v>
       </c>
       <c r="C34" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
+      <c r="I34" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L34" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
         <v>45432</v>
       </c>
       <c r="C35" s="15">
         <v>0.5</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
+      <c r="I35" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
         <v>45432</v>
       </c>
       <c r="C36" s="15">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="16"/>
+      <c r="I36" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="B37" s="14">
         <v>45433</v>
       </c>
       <c r="C37" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
+      <c r="I37" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L37" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>45433</v>
       </c>
       <c r="C38" s="15">
         <v>0.5</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
+      <c r="I38" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="17"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>45433</v>
       </c>
       <c r="C39" s="15">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
+      <c r="I39" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="17"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="B40" s="14">
         <v>45434</v>
       </c>
       <c r="C40" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
+      <c r="I40" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L40" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
         <v>45434</v>
       </c>
       <c r="C41" s="15">
         <v>0.5</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
+      <c r="I41" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="17"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
         <v>45434</v>
       </c>
       <c r="C42" s="15">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="16"/>
+      <c r="I42" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
       <c r="L42" s="17"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="B43" s="14">
         <v>45435</v>
       </c>
@@ -2010,12 +2168,16 @@
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
+      <c r="I43" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L43" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>45435</v>
       </c>
@@ -2031,14 +2193,20 @@
       <c r="F44" s="16">
         <v>10</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
       <c r="L44" s="17"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
         <v>45435</v>
       </c>
@@ -2056,17 +2224,22 @@
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="16"/>
+      <c r="I45" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="17"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="B46" s="14">
         <v>45436</v>
       </c>
       <c r="C46" s="15">
-        <v>0.33333333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>3</v>
@@ -2077,19 +2250,25 @@
       <c r="F46" s="16">
         <v>10</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
       <c r="L46" s="17"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="14">
         <v>45436</v>
       </c>
       <c r="C47" s="15">
-        <v>0.5</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>3</v>
@@ -2102,17 +2281,19 @@
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="16"/>
+      <c r="I47" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
       <c r="L47" s="17"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="14">
         <v>45436</v>
       </c>
       <c r="C48" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>3</v>
@@ -2125,17 +2306,22 @@
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="16"/>
+      <c r="I48" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
       <c r="L48" s="17"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="B49" s="14">
         <v>45437</v>
       </c>
       <c r="C49" s="15">
-        <v>0.33333333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>3</v>
@@ -2148,17 +2334,19 @@
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="16"/>
+      <c r="I49" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
       <c r="L49" s="17"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="14">
         <v>45437</v>
       </c>
       <c r="C50" s="15">
-        <v>0.5</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>3</v>
@@ -2171,40 +2359,41 @@
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="16"/>
+      <c r="I50" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="17"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="14">
         <v>45437</v>
       </c>
-      <c r="C51" s="15">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="16">
-        <v>5</v>
-      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
+      <c r="H51" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
       <c r="L51" s="17"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="B52" s="14">
         <v>45438</v>
       </c>
       <c r="C52" s="15">
-        <v>0.33333333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>3</v>
@@ -2217,17 +2406,19 @@
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="16"/>
+      <c r="I52" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
       <c r="L52" s="17"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="14">
         <v>45438</v>
       </c>
       <c r="C53" s="15">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>3</v>
@@ -2240,17 +2431,19 @@
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="16"/>
+      <c r="I53" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
       <c r="L53" s="17"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="14">
         <v>45438</v>
       </c>
       <c r="C54" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>3</v>
@@ -2263,12 +2456,17 @@
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
+      <c r="I54" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
       <c r="L54" s="17"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="B55" s="14">
         <v>45439</v>
       </c>
@@ -2286,17 +2484,19 @@
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
-      <c r="I55" s="16"/>
+      <c r="I55" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
       <c r="L55" s="17"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="14">
         <v>45439</v>
       </c>
       <c r="C56" s="15">
-        <v>0.5</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>3</v>
@@ -2309,17 +2509,19 @@
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="17"/>
-      <c r="I56" s="16"/>
+      <c r="I56" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
       <c r="L56" s="17"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="14">
         <v>45439</v>
       </c>
       <c r="C57" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>3</v>
@@ -2332,17 +2534,22 @@
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="16"/>
+      <c r="I57" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="17"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="B58" s="14">
         <v>45440</v>
       </c>
       <c r="C58" s="15">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>3</v>
@@ -2355,17 +2562,19 @@
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
-      <c r="I58" s="16"/>
+      <c r="I58" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
       <c r="L58" s="17"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="14">
         <v>45440</v>
       </c>
       <c r="C59" s="15">
-        <v>0.5</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>3</v>
@@ -2378,17 +2587,19 @@
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
-      <c r="I59" s="16"/>
+      <c r="I59" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
       <c r="L59" s="17"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B60" s="14">
         <v>45440</v>
       </c>
       <c r="C60" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>3</v>
@@ -2401,17 +2612,22 @@
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="17"/>
-      <c r="I60" s="16"/>
+      <c r="I60" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
       <c r="L60" s="17"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="B61" s="14">
         <v>45441</v>
       </c>
       <c r="C61" s="15">
-        <v>0.33333333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>3</v>
@@ -2424,17 +2640,19 @@
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
-      <c r="I61" s="16"/>
+      <c r="I61" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
       <c r="L61" s="17"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>45441</v>
       </c>
       <c r="C62" s="15">
-        <v>0.5</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>3</v>
@@ -2447,17 +2665,19 @@
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
-      <c r="I62" s="16"/>
+      <c r="I62" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
       <c r="L62" s="17"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>45441</v>
       </c>
       <c r="C63" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>3</v>
@@ -2470,12 +2690,17 @@
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
-      <c r="I63" s="16"/>
+      <c r="I63" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
       <c r="L63" s="17"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="B64" s="14">
         <v>45442</v>
       </c>
@@ -2493,17 +2718,19 @@
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
-      <c r="I64" s="16"/>
+      <c r="I64" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
       <c r="L64" s="17"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>45442</v>
       </c>
       <c r="C65" s="15">
-        <v>0.5</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>3</v>
@@ -2516,17 +2743,19 @@
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="16"/>
+      <c r="I65" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
       <c r="L65" s="17"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>45442</v>
       </c>
       <c r="C66" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>3</v>
@@ -2537,19 +2766,28 @@
       <c r="F66" s="16">
         <v>5</v>
       </c>
-      <c r="G66" s="16"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="16"/>
+      <c r="G66" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
       <c r="L66" s="17"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="B67" s="14">
         <v>45443</v>
       </c>
       <c r="C67" s="15">
-        <v>0.33333333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>3</v>
@@ -2562,27 +2800,21 @@
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
-      <c r="I67" s="16"/>
+      <c r="I67" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
       <c r="L67" s="17"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>45443</v>
       </c>
-      <c r="C68" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="16">
-        <v>10</v>
-      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
       <c r="I68" s="16"/>
@@ -2590,13 +2822,11 @@
       <c r="K68" s="16"/>
       <c r="L68" s="17"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>45443</v>
       </c>
-      <c r="C69" s="15">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="C69" s="15"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -2610,6 +2840,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K999999 Intern&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K999999 Intern</oddFooter>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2618,13 +2852,13 @@
           <x14:formula1>
             <xm:f>Reference!$C$3:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G69</xm:sqref>
+          <xm:sqref>G2:G17 G22:G69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEE61796-C50E-4DB3-BEBD-866C715527AF}">
           <x14:formula1>
             <xm:f>Reference!$H$3:$H$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I69</xm:sqref>
+          <xm:sqref>I22:I69 I2:I17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2634,422 +2868,605 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CB5FA9-7120-4643-8577-B902050CF412}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="6.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="2.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="5" customWidth="1"/>
+    <col min="8" max="9" width="6.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="47" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="6">
         <v>45422</v>
       </c>
-      <c r="B2" s="7">
+      <c r="C2" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>103</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>65</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>50</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>61.8</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>27.1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>21.4</v>
       </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="6">
         <v>45423</v>
       </c>
-      <c r="B3" s="7">
+      <c r="C3" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6">
         <v>45424</v>
       </c>
-      <c r="B4" s="7">
+      <c r="C4" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>105</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>71</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>54</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <v>61.8</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>24.8</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>21.3</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="6">
         <v>45425</v>
       </c>
-      <c r="B5" s="7">
+      <c r="C5" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>103</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>69</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>55</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>61.9</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>28.3</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>21.4</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="6">
         <v>45426</v>
       </c>
-      <c r="B6" s="7">
+      <c r="C6" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="6">
         <v>45427</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C7" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="D7" s="8">
+        <v>99</v>
+      </c>
+      <c r="E7" s="8">
+        <v>71</v>
+      </c>
+      <c r="F7" s="8">
+        <v>54</v>
+      </c>
+      <c r="G7" s="8">
+        <v>61.3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="I7" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6">
         <v>45428</v>
       </c>
-      <c r="B8" s="7">
+      <c r="C8" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="6">
         <v>45429</v>
       </c>
-      <c r="B9" s="7">
+      <c r="C9" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="J9" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="6">
         <v>45430</v>
       </c>
-      <c r="B10" s="7">
+      <c r="C10" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="6">
         <v>45431</v>
       </c>
-      <c r="B11" s="7">
+      <c r="C11" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="6">
         <v>45432</v>
       </c>
-      <c r="B12" s="7">
+      <c r="C12" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="D12" s="8">
+        <v>113</v>
+      </c>
+      <c r="E12" s="8">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8">
+        <v>60</v>
+      </c>
+      <c r="G12" s="8">
+        <v>59.1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>28.4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="6">
         <v>45433</v>
       </c>
-      <c r="B13" s="7">
+      <c r="C13" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="D13" s="8">
+        <v>94</v>
+      </c>
+      <c r="E13" s="8">
+        <v>65</v>
+      </c>
+      <c r="F13" s="8">
+        <v>58</v>
+      </c>
+      <c r="G13" s="8">
+        <v>59.5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>28.5</v>
+      </c>
+      <c r="I13" s="8">
+        <v>20.6</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="6">
         <v>45434</v>
       </c>
-      <c r="B14" s="7">
+      <c r="C14" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="D14" s="8">
+        <v>116</v>
+      </c>
+      <c r="E14" s="8">
+        <v>74</v>
+      </c>
+      <c r="F14" s="8">
+        <v>59</v>
+      </c>
+      <c r="G14" s="8">
+        <v>59.8</v>
+      </c>
+      <c r="H14" s="8">
+        <v>28.6</v>
+      </c>
+      <c r="I14" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="6">
         <v>45435</v>
       </c>
-      <c r="B15" s="7">
+      <c r="C15" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="D15" s="8">
+        <v>112</v>
+      </c>
+      <c r="E15" s="8">
+        <v>69</v>
+      </c>
+      <c r="F15" s="8">
+        <v>50</v>
+      </c>
+      <c r="G15" s="8">
+        <v>59.4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>20.6</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="6">
         <v>45436</v>
       </c>
-      <c r="B16" s="7">
+      <c r="C16" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="6">
         <v>45437</v>
       </c>
-      <c r="B17" s="7">
+      <c r="C17" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="D17" s="8">
+        <v>119</v>
+      </c>
+      <c r="E17" s="8">
+        <v>76</v>
+      </c>
+      <c r="F17" s="8">
+        <v>54</v>
+      </c>
+      <c r="G17" s="8">
+        <v>59.9</v>
+      </c>
+      <c r="H17" s="8">
+        <v>28.7</v>
+      </c>
+      <c r="I17" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="6">
         <v>45438</v>
       </c>
-      <c r="B18" s="7">
+      <c r="C18" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="D18" s="8">
+        <v>124</v>
+      </c>
+      <c r="E18" s="8">
+        <v>68</v>
+      </c>
+      <c r="F18" s="8">
+        <v>62</v>
+      </c>
+      <c r="G18" s="8">
+        <v>60.2</v>
+      </c>
+      <c r="H18" s="8">
+        <v>28.5</v>
+      </c>
+      <c r="I18" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="6">
         <v>45439</v>
       </c>
-      <c r="B19" s="7">
+      <c r="C19" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="D19" s="8">
+        <v>120</v>
+      </c>
+      <c r="E19" s="8">
+        <v>74</v>
+      </c>
+      <c r="F19" s="8">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8">
+        <v>60.2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>28.5</v>
+      </c>
+      <c r="I19" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="6">
         <v>45440</v>
       </c>
-      <c r="B20" s="7">
+      <c r="C20" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="6">
         <v>45441</v>
       </c>
-      <c r="B21" s="7">
+      <c r="C21" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="6">
         <v>45442</v>
       </c>
-      <c r="B22" s="7">
+      <c r="C22" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+      <c r="D22" s="8">
+        <v>107</v>
+      </c>
+      <c r="E22" s="8">
+        <v>72</v>
+      </c>
+      <c r="F22" s="8">
+        <v>69</v>
+      </c>
+      <c r="G22" s="8">
+        <v>60.3</v>
+      </c>
+      <c r="H22" s="8">
+        <v>24.2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="6">
         <v>45443</v>
       </c>
-      <c r="B23" s="7">
+      <c r="C23" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K999999 Intern&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K999999 Intern</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3061,21 +3478,21 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="22.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -3083,7 +3500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -3109,7 +3526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>11</v>
       </c>
@@ -3117,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>17</v>
@@ -3129,13 +3546,13 @@
         <v>24</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>12</v>
       </c>
@@ -3143,7 +3560,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>14</v>
@@ -3155,13 +3572,13 @@
         <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>13</v>
       </c>
@@ -3169,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>15</v>
@@ -3181,13 +3598,13 @@
         <v>25</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>14</v>
       </c>
@@ -3195,7 +3612,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -3207,13 +3624,13 @@
         <v>29</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F7" s="8">
         <v>25</v>
       </c>
@@ -3221,13 +3638,13 @@
         <v>27</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F8" s="8">
         <v>26</v>
       </c>
@@ -3235,13 +3652,13 @@
         <v>28</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F9" s="8">
         <v>27</v>
       </c>
@@ -3249,7 +3666,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>16</v>
@@ -3257,5 +3674,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K999999 Intern&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K999999 Intern</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>